--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -6377,7 +6377,7 @@
         <v>42999</v>
       </c>
       <c r="E6" s="22">
-        <f>IF(ISBLANK(C6),"", (D6-C6))</f>
+        <f t="shared" ref="E6:E17" si="1">IF(ISBLANK(C6),"", (D6-C6))</f>
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
@@ -6393,7 +6393,7 @@
         <v>42999</v>
       </c>
       <c r="E7" s="22">
-        <f>IF(ISBLANK(C7),"", (D7-C7))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F7" s="2"/>
@@ -6409,7 +6409,7 @@
         <v>43013</v>
       </c>
       <c r="E8" s="22">
-        <f>IF(ISBLANK(C8),"", (D8-C8))</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="F8" s="2"/>
@@ -6425,7 +6425,7 @@
         <v>43013</v>
       </c>
       <c r="E9" s="22">
-        <f>IF(ISBLANK(C9),"", (D9-C9))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F9" s="2"/>
@@ -6441,7 +6441,7 @@
         <v>43040</v>
       </c>
       <c r="E10" s="22">
-        <f>IF(ISBLANK(C10),"", (D10-C10))</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="F10" s="2"/>
@@ -6457,7 +6457,7 @@
         <v>43040</v>
       </c>
       <c r="E11" s="22">
-        <f>IF(ISBLANK(C11),"", (D11-C11))</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="F11" s="2"/>
@@ -6473,7 +6473,7 @@
         <v>43019</v>
       </c>
       <c r="E12" s="22">
-        <f>IF(ISBLANK(C12),"", (D12-C12))</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F12" s="2"/>
@@ -6489,7 +6489,7 @@
         <v>43026</v>
       </c>
       <c r="E13" s="22">
-        <f>IF(ISBLANK(C13),"", (D13-C13))</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F13" s="2"/>
@@ -6505,7 +6505,7 @@
         <v>43033</v>
       </c>
       <c r="E14" s="22">
-        <f>IF(ISBLANK(C14),"", (D14-C14))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F14" s="2"/>
@@ -6521,7 +6521,7 @@
         <v>43040</v>
       </c>
       <c r="E15" s="22">
-        <f>IF(ISBLANK(C15),"", (D15-C15))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F15" s="2"/>
@@ -6537,7 +6537,7 @@
         <v>43047</v>
       </c>
       <c r="E16" s="22">
-        <f>IF(ISBLANK(C16),"", (D16-C16))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F16" s="2"/>
@@ -6549,7 +6549,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="22" t="str">
-        <f>IF(ISBLANK(C17),"", (D17-C17))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F17" s="2"/>

--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Gantt Chart - Manual Duration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Start Date</t>
   </si>
@@ -164,6 +165,15 @@
   </si>
   <si>
     <t>BOM &amp; Order Parts</t>
+  </si>
+  <si>
+    <t>System Debug</t>
+  </si>
+  <si>
+    <t>Final Report and Docs</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -497,9 +507,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Manual Gantt Chart'!$B$5:$B$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Basic Manual Gantt Chart'!$B$5:$B$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Basic Manual Gantt Chart'!$B$5:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Concept, Abstract, PDR, &amp; Gantt Chart</c:v>
                 </c:pt>
@@ -540,26 +557,30 @@
                   <c:v>Final Model</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Task Fourteen</c:v>
+                  <c:v>System Debug</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Task Fifteen</c:v>
+                  <c:v>Final Report and Docs</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Task Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Task Seventeen</c:v>
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Manual Gantt Chart'!$C$5:$C$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Basic Manual Gantt Chart'!$C$5:$C$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Basic Manual Gantt Chart'!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>42968</c:v>
                 </c:pt>
@@ -596,17 +617,17 @@
                 <c:pt idx="11">
                   <c:v>43040</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43047</c:v>
+                </c:pt>
                 <c:pt idx="13">
-                  <c:v>42968</c:v>
+                  <c:v>43054</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42968</c:v>
+                  <c:v>43060</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42968</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42968</c:v>
+                  <c:v>43066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,9 +641,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Duration</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -937,182 +955,18 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E78"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E78"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="528E78"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002A-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B86FD7"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002C-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C24B39"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002E-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C24B39"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000030-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C24B39"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000032-4B0A-48FF-B796-AB59DD786709}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Manual Gantt Chart'!$B$5:$B$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Basic Manual Gantt Chart'!$B$5:$B$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Basic Manual Gantt Chart'!$B$5:$B$20</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Concept, Abstract, PDR, &amp; Gantt Chart</c:v>
                 </c:pt>
@@ -1153,26 +1007,30 @@
                   <c:v>Final Model</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Task Fourteen</c:v>
+                  <c:v>System Debug</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Task Fifteen</c:v>
+                  <c:v>Final Report and Docs</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Task Sixteen</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Task Seventeen</c:v>
+                  <c:v>Demo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Manual Gantt Chart'!$E$5:$E$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Basic Manual Gantt Chart'!$E$5:$E$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Basic Manual Gantt Chart'!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -1210,43 +1068,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-42968</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-42968</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-42968</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1130,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1325,6 +1156,7 @@
         <c:axId val="-2095184144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43070"/>
           <c:min val="42968"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1359,7 +1191,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5672,7 +5504,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6256,8 +6088,8 @@
   </sheetPr>
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6361,7 +6193,7 @@
         <v>42984</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" ref="E5:E29" si="0">IF(ISBLANK(C5),"", (D5-C5))</f>
+        <f t="shared" ref="E5:E20" si="0">IF(ISBLANK(C5),"", (D5-C5))</f>
         <v>16</v>
       </c>
       <c r="F5" s="2"/>
@@ -6546,149 +6378,126 @@
       <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="22" t="str">
+      <c r="C17" s="3">
+        <v>43047</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43054</v>
+      </c>
+      <c r="E17" s="22">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
-        <v>42968</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>43054</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43060</v>
+      </c>
       <c r="E18" s="22">
         <f t="shared" si="0"/>
-        <v>-42968</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
-        <v>42968</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>43060</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43066</v>
+      </c>
       <c r="E19" s="22">
         <f t="shared" si="0"/>
-        <v>-42968</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3">
-        <v>42968</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>43066</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43067</v>
+      </c>
       <c r="E20" s="22">
         <f t="shared" si="0"/>
-        <v>-42968</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3">
-        <v>42968</v>
-      </c>
-      <c r="D21" s="3">
-        <v>43066</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E22" s="22"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="26"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E24" s="22"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E25" s="22"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E26" s="22"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E27" s="22"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="26"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E29" s="22"/>
     </row>
     <row r="32" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G32" s="25" t="s">
